--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,24 +69,54 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="s">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" t="s">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -6,15 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Seshu" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>seshu</t>
+  </si>
+  <si>
+    <t>babu</t>
+  </si>
+  <si>
+    <t>karanam</t>
   </si>
 </sst>
 </file>
@@ -59,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,54 +76,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
